--- a/data/trans_dic/POLIPATOLOGIA_Lim_2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +527,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +543,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,14 +619,11 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,60 +633,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>22,2%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>23,08%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>19,81%</t>
         </is>
@@ -724,69 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>10,96; 19,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,73; 19,11</t>
+          <t>10,64; 19,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 19,09</t>
+          <t>11,43; 20,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,55; 19,89</t>
+          <t>24,16; 35,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>26,68; 37,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,1; 35,87</t>
+          <t>20,88; 28,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,01; 37,6</t>
+          <t>18,96; 26,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 28,26</t>
+          <t>19,87; 27,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>18,71; 25,99</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>19,3; 26,58</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>16,92; 22,52</t>
+          <t>16,88; 22,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,60 +743,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>24,26%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>20,22%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>22,54%</t>
         </is>
@@ -864,69 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>14,88; 22,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,37; 22,12</t>
+          <t>10,56; 16,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,46; 16,78</t>
+          <t>11,27; 17,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,98; 17,85</t>
+          <t>26,15; 34,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>22,88; 30,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,64; 34,26</t>
+          <t>27,2; 34,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,04; 30,98</t>
+          <t>21,35; 27,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,77; 34,54</t>
+          <t>17,45; 22,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>21,39; 27,47</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>17,61; 22,96</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>20,04; 25,33</t>
+          <t>20,07; 25,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,60 +853,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>23,76%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>17,58%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>28,39%</t>
         </is>
@@ -1004,62 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>16,52; 25,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,38; 25,75</t>
+          <t>8,85; 15,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,69; 15,25</t>
+          <t>19,26; 28,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,24; 27,86</t>
+          <t>21,84; 32,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>18,33; 27,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,45; 31,24</t>
+          <t>29,02; 37,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,61; 28,76</t>
+          <t>20,63; 27,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,95; 36,89</t>
+          <t>14,91; 20,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>20,41; 27,21</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>14,9; 20,87</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>25,5; 31,38</t>
+          <t>25,61; 31,66</t>
         </is>
       </c>
     </row>
@@ -1076,60 +963,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>23,49%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>24,09%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>26,56%</t>
         </is>
@@ -1144,62 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>11,14; 19,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,57; 19,1</t>
+          <t>13,16; 20,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,82; 20,52</t>
+          <t>20,55; 31,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 31,72</t>
+          <t>27,05; 36,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>26,19; 36,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,44; 36,33</t>
+          <t>16,75; 34,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,25; 36,2</t>
+          <t>20,41; 26,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 34,65</t>
+          <t>20,74; 27,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>20,5; 26,68</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>20,92; 27,53</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>20,11; 31,05</t>
+          <t>19,89; 31,2</t>
         </is>
       </c>
     </row>
@@ -1216,60 +1073,45 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>47,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>34,7%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>22,39%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>19,01%</t>
         </is>
@@ -1284,69 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>16,7; 28,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,26; 28,27</t>
+          <t>10,63; 20,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,89; 20,42</t>
+          <t>10,17; 18,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,88; 17,6</t>
+          <t>40,63; 54,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>23,7; 35,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,35; 52,96</t>
+          <t>11,25; 29,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,53; 35,83</t>
+          <t>30,3; 39,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,17; 29,53</t>
+          <t>18,73; 26,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>29,89; 39,51</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>18,65; 26,36</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>13,09; 23,01</t>
+          <t>12,25; 22,58</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,60 +1183,45 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>37,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>28,59%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>22,8%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>31,05%</t>
         </is>
@@ -1424,69 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>18,67; 28,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,8; 29,08</t>
+          <t>14,26; 23,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,05; 23,92</t>
+          <t>21,33; 30,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,03; 30,17</t>
+          <t>27,78; 38,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>21,24; 32,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,25; 39,25</t>
+          <t>32,94; 42,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,67; 32,64</t>
+          <t>25,02; 32,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,5; 42,04</t>
+          <t>19,27; 27,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>24,46; 32,19</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>19,21; 26,85</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>27,89; 34,57</t>
+          <t>27,95; 34,52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,60 +1293,45 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>21,73%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>17,83%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>28,75%</t>
         </is>
@@ -1564,62 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>13,07; 18,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,82; 18,86</t>
+          <t>11,34; 17,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,29; 17,18</t>
+          <t>18,94; 26,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,15; 26,33</t>
+          <t>23,84; 30,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>18,37; 25,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,03; 31,07</t>
+          <t>17,91; 44,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,91; 24,47</t>
+          <t>19,56; 24,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,58; 44,98</t>
+          <t>15,81; 20,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>19,52; 23,98</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>15,89; 19,94</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>17,87; 34,12</t>
+          <t>17,91; 34,18</t>
         </is>
       </c>
     </row>
@@ -1636,60 +1403,45 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>18,83%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>20,05%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>16,65%</t>
         </is>
@@ -1704,62 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>11,56; 16,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,38; 16,62</t>
+          <t>13,28; 18,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,22; 19,01</t>
+          <t>3,98; 13,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,01; 13,27</t>
+          <t>20,27; 26,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>20,67; 27,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,46; 26,7</t>
+          <t>23,51; 29,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,0; 26,78</t>
+          <t>17,03; 21,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,55; 29,0</t>
+          <t>18,2; 22,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>17,04; 21,0</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>18,01; 22,05</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>10,1; 20,32</t>
+          <t>10,29; 20,09</t>
         </is>
       </c>
     </row>
@@ -1776,60 +1513,45 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>23,21%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>20,46%</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
         <is>
           <t>23,63%</t>
         </is>
@@ -1844,62 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,73; 18,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,65; 18,48</t>
+          <t>13,72; 16,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,71; 16,23</t>
+          <t>13,6; 18,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,49; 19,0</t>
+          <t>27,69; 30,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>24,22; 27,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>27,74; 30,61</t>
+          <t>24,13; 32,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>24,22; 27,51</t>
+          <t>22,16; 24,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>24,67; 32,29</t>
+          <t>19,41; 21,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>22,12; 24,29</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>19,49; 21,47</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>20,42; 25,37</t>
+          <t>20,31; 25,31</t>
         </is>
       </c>
     </row>
@@ -1912,20 +1619,1635 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dos o más enfermedades crónicas de las que al menos una es limitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>43267</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>42444</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>47896</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>85909</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>92008</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>71186</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>129176</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>134452</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>119082</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>32297; 56286</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31265; 55926</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>35585; 63178</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>69410; 102145</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>77036; 108101</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>60464; 82284</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>110331; 152997</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>115733; 158505</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>101446; 136831</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>92200</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>67031</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>74001</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>157502</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>140391</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>158919</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>249702</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>207422</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>232919</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>75200; 114620</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>53086; 81917</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>58404; 91759</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>136969; 179451</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>119659; 161949</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>140062; 176484</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>219749; 280326</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>179007; 233401</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>207397; 261163</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>67469</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37853</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>73897</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>90571</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>77261</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>114958</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>158040</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>115114</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>188855</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>53529; 83438</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>28189; 49975</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>60871; 88857</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>74486; 109274</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>61635; 93185</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>101324; 130999</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>137232; 181084</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>97668; 135596</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>170342; 210626</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>55575</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>61442</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>79180</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>123610</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>120977</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>130191</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>179185</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>182419</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>209371</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>41676; 71204</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48685; 76387</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>64239; 98499</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>105195; 142193</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>101434; 141064</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>79684; 165696</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>155686; 203011</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>157048; 209032</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>156758; 245904</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>46596</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>32282</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>24320</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>103385</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>63968</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>58868</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>149981</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>96250</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>83189</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>35517; 59841</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22449; 43372</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18170; 32769</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>89225; 119737</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>51795; 77559</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29117; 75702</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>130979; 171838</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>80500; 113243</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>53595; 98796</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>64047</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>48558</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>68064</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>94368</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>73723</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>95470</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>158415</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>122281</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>163534</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>51143; 78600</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>37511; 63039</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>57502; 80976</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>77782; 108296</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>58000; 88931</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>84678; 108679</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>138612; 181047</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>103350; 144796</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>147190; 181832</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>104464</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>92796</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>141257</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>190343</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>147553</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>282409</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>294807</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>240349</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>423666</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>86650; 125123</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>74435; 113322</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>118243; 166317</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>165425; 213605</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>126984; 172799</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>152100; 381542</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>265327; 326614</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>213134; 273504</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>263846; 503668</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>108988</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>124121</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>86479</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>192921</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>197581</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>187603</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>301910</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>321702</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>274082</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>90101; 130469</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>103385; 146120</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>36918; 123773</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>166971; 217408</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>170739; 224375</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>168716; 208603</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>272970; 336781</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>292000; 357444</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>169348; 330763</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2687</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>582606</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>506527</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>595095</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1038610</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>913463</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1099603</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1621216</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1419989</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1694698</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>539147; 628616</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>465684; 548403</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>470623; 656562</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>985463; 1095935</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>858554; 967781</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>895754; 1194646</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1547932; 1698386</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1346697; 1488780</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1456828; 1814962</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>